--- a/TO(Tópicos Especiais)/Capítulo 02 - Cenários.xlsx
+++ b/TO(Tópicos Especiais)/Capítulo 02 - Cenários.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANÁLISE COMPARATIVA" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Cenário Modelo" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Cenário Vendas Baixas" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Vendas Maiores" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Cenário Preço Maior" sheetId="8" state="visible" r:id="rId7"/>
+    <sheet name="ANÁLISE CRITICA" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Cenário Modelo" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Cenário Vendas Baixas" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Vendas Maiores" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Cenário Preço Maior" sheetId="9" state="visible" r:id="rId8"/>
+    <sheet name="Preços baixos" sheetId="11" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t xml:space="preserve">Ano 1</t>
   </si>
@@ -44,16 +46,37 @@
     <t xml:space="preserve">Cenário 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cenario 2</t>
+    <t xml:space="preserve">Vendas baixas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vendas altas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preço alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preço baixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenário 2</t>
   </si>
   <si>
     <t xml:space="preserve">Cenário 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Vendas altas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cenário 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Preços altos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cenário 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preços baixos</t>
   </si>
   <si>
     <t xml:space="preserve">CENÁRIO 1</t>
@@ -88,6 +111,9 @@
   <si>
     <t xml:space="preserve">PREÇO MAIOR</t>
   </si>
+  <si>
+    <t xml:space="preserve">CENÁRIO 5</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +124,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,19 +230,22 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -342,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,11 +392,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,8 +514,8 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -608,11 +641,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="59948120"/>
-        <c:axId val="26528264"/>
+        <c:axId val="68913974"/>
+        <c:axId val="50429819"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59948120"/>
+        <c:axId val="68913974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +714,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26528264"/>
+        <c:crossAx val="50429819"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -689,7 +722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26528264"/>
+        <c:axId val="50429819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +801,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59948120"/>
+        <c:crossAx val="68913974"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,11 +942,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="7242423"/>
-        <c:axId val="70326216"/>
+        <c:axId val="92152726"/>
+        <c:axId val="68063110"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7242423"/>
+        <c:axId val="92152726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70326216"/>
+        <c:crossAx val="68063110"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +1023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70326216"/>
+        <c:axId val="68063110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1102,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7242423"/>
+        <c:crossAx val="92152726"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,6 +1130,693 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Receita Líquida
+Ano 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'ANÁLISE CRITICA'!$D$35:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>821700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>731700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>920700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1811700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="9317767"/>
+        <c:axId val="99046879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="9317767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99046879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99046879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9317767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Receita Líquida
+Ano 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'ANÁLISE CRITICA'!$E$35:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>986040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>903870</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1084644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1344600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>806760</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="71278629"/>
+        <c:axId val="27623774"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71278629"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27623774"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27623774"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71278629"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Receita Líquida
+Ano 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'ANÁLISE CRITICA'!$F$35:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1120500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>904500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1255500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1795500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>895500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="70200649"/>
+        <c:axId val="24782719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70200649"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24782719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24782719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70200649"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1108,7 +1828,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>646200</xdr:colOff>
+      <xdr:colOff>500760</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
@@ -1148,7 +1868,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3839760" y="6515280"/>
+        <a:off x="3985200" y="6515280"/>
         <a:ext cx="3762000" cy="2533320"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1167,8 +1887,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>822240</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
@@ -1240,8 +1960,8 @@
       <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>797040</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
@@ -1313,8 +2033,8 @@
       <xdr:rowOff>123840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550080</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
@@ -1757,7 +2477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2501280" y="9362880"/>
+          <a:off x="2646720" y="9362880"/>
           <a:ext cx="3047760" cy="685440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1822,7 +2542,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
@@ -1894,8 +2614,8 @@
       <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>893880</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
@@ -2034,178 +2754,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>345600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:colOff>807480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Shape 10"/>
+        <xdr:cNvPr id="9" name="Shape 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1804680" y="85680"/>
-          <a:ext cx="5238360" cy="399600"/>
+          <a:off x="2566080" y="4628160"/>
+          <a:ext cx="4133520" cy="247320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:tabLst>
-              <a:tab algn="l" pos="0"/>
-            </a:tabLst>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:latin typeface="Bookman Old Style"/>
-              <a:ea typeface="Bookman Old Style"/>
-            </a:rPr>
-            <a:t>EXEMPLO DE UTILIZAÇÃO DO MS-EXCEL PARA CONSTRUÇÃO DE MODELOS DE SIMULAÇÃO</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666720</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2473200" y="1095480"/>
-          <a:ext cx="3533400" cy="247320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:tabLst>
-              <a:tab algn="l" pos="0"/>
-            </a:tabLst>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>SIMULAÇÃO DA RECEITA LÍQUIDA</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="pt-BR" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>181080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7072560" y="1752480"/>
-          <a:ext cx="1190160" cy="247320"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -2237,16 +2808,16 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:rPr>
-            <a:t>Preço Normal</a:t>
+            <a:t>RECEITAS LÍQUIDAS</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="pt-BR" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="pt-BR" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2256,41 +2827,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257040</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495360</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>184320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>93240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 13"/>
+        <xdr:cNvPr id="10" name="Shape 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7148520" y="2724480"/>
-          <a:ext cx="1618920" cy="266400"/>
+          <a:off x="1588320" y="8267400"/>
+          <a:ext cx="161640" cy="361440"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2300,11 +2863,11 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t">
+        <a:bodyPr anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr">
+          <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2313,21 +2876,111 @@
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike" baseline="30000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:rPr>
-            <a:t>Quantidade Normal</a:t>
+            <a:t>–</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="pt-BR" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>124200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>154080</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="124200" y="7109280"/>
+        <a:ext cx="4105800" cy="2852640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321480</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>741960</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4397400" y="7101720"/>
+        <a:ext cx="3708720" cy="2822040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>897840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>439560</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8262000" y="7055280"/>
+        <a:ext cx="3545280" cy="2890440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2513,13 +3166,13 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="8"/>
   </cols>
@@ -3674,7 +4327,4427 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1000"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>125000</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17" t="n">
+        <f aca="false">C14*C15</f>
+        <v>880000</v>
+      </c>
+      <c r="D17" s="17" t="n">
+        <f aca="false">D14*D15</f>
+        <v>1080000</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <f aca="false">E14*E15</f>
+        <v>1250000</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <f aca="false">F14*F15</f>
+        <v>1430000</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <f aca="false">G14*G15</f>
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17" t="n">
+        <v>187000</v>
+      </c>
+      <c r="D19" s="17" t="n">
+        <f aca="false">D17*0.17</f>
+        <v>183600</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>255000</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <f aca="false">F17*0.17</f>
+        <v>243100</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <f aca="false">G17*0.17</f>
+        <v>275400</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="n">
+        <f aca="false">C17-C19</f>
+        <v>693000</v>
+      </c>
+      <c r="D21" s="17" t="n">
+        <f aca="false">D17-D19</f>
+        <v>896400</v>
+      </c>
+      <c r="E21" s="17" t="n">
+        <f aca="false">E17-E19</f>
+        <v>995000</v>
+      </c>
+      <c r="F21" s="17" t="n">
+        <f aca="false">F17-F19</f>
+        <v>1186900</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <f aca="false">G17-G19</f>
+        <v>1344600</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="n">
+        <f aca="false">0.1*C21</f>
+        <v>69300</v>
+      </c>
+      <c r="D23" s="17" t="n">
+        <f aca="false">0.1*D21</f>
+        <v>89640</v>
+      </c>
+      <c r="E23" s="17" t="n">
+        <f aca="false">0.1*E21</f>
+        <v>99500</v>
+      </c>
+      <c r="F23" s="17" t="n">
+        <f aca="false">0.1*F21</f>
+        <v>118690</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <f aca="false">0.1*G21</f>
+        <v>134460</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18" t="n">
+        <f aca="false">C21-C23</f>
+        <v>623700</v>
+      </c>
+      <c r="D25" s="19" t="n">
+        <f aca="false">D21-D23</f>
+        <v>806760</v>
+      </c>
+      <c r="E25" s="19" t="n">
+        <f aca="false">E21-E23</f>
+        <v>895500</v>
+      </c>
+      <c r="F25" s="19" t="n">
+        <f aca="false">F21-F23</f>
+        <v>1068210</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <f aca="false">G21-G23</f>
+        <v>1210140</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="3"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="3"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="3"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="3"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="3"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="3"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="3"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="3"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="3"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A306" s="3"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="3"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="3"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="3"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="3"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A312" s="3"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A313" s="3"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A315" s="3"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A316" s="3"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A317" s="3"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A318" s="3"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="3"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A320" s="3"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A321" s="3"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A322" s="3"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A323" s="3"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A324" s="3"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A325" s="3"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="3"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A328" s="3"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="3"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A330" s="3"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A331" s="3"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A335" s="3"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A337" s="3"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A343" s="3"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A344" s="3"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A346" s="3"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A347" s="3"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="3"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="3"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A352" s="3"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="3"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A362" s="3"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="3"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="3"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="3"/>
+    </row>
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="3"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="3"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="3"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="3"/>
+    </row>
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="3"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="3"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="3"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="3"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="3"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="3"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="3"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="3"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="3"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="3"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="3"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="3"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="3"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="3"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="3"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="3"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="3"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="3"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="3"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="3"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="3"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="3"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="3"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A433" s="3"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A434" s="3"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A435" s="3"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A436" s="3"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A437" s="3"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A439" s="3"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="3"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A441" s="3"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A442" s="3"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A443" s="3"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A444" s="3"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A445" s="3"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A447" s="3"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="3"/>
+    </row>
+    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A450" s="3"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A451" s="3"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A452" s="3"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A453" s="3"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A454" s="3"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A455" s="3"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A456" s="3"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A457" s="3"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A458" s="3"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A459" s="3"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A460" s="3"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A461" s="3"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A462" s="3"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A463" s="3"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A464" s="3"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A465" s="3"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A466" s="3"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A467" s="3"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A468" s="3"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A469" s="3"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A470" s="3"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A471" s="3"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A472" s="3"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A473" s="3"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="3"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A475" s="3"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A476" s="3"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A477" s="3"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A478" s="3"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A479" s="3"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A480" s="3"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A481" s="3"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A482" s="3"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A483" s="3"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A484" s="3"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A485" s="3"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A486" s="3"/>
+    </row>
+    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A487" s="3"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A488" s="3"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A489" s="3"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A490" s="3"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A491" s="3"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A492" s="3"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A493" s="3"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A494" s="3"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A495" s="3"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A496" s="3"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A497" s="3"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A499" s="3"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A501" s="3"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A502" s="3"/>
+    </row>
+    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A503" s="3"/>
+    </row>
+    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="3"/>
+    </row>
+    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A509" s="3"/>
+    </row>
+    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A510" s="3"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A511" s="3"/>
+    </row>
+    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A512" s="3"/>
+    </row>
+    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A513" s="3"/>
+    </row>
+    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A514" s="3"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A515" s="3"/>
+    </row>
+    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A516" s="3"/>
+    </row>
+    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A517" s="3"/>
+    </row>
+    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A518" s="3"/>
+    </row>
+    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A519" s="3"/>
+    </row>
+    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A520" s="3"/>
+    </row>
+    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A521" s="3"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A522" s="3"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A523" s="3"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A524" s="3"/>
+    </row>
+    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A525" s="3"/>
+    </row>
+    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A527" s="3"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A528" s="3"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A529" s="3"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A530" s="3"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A531" s="3"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A532" s="3"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A533" s="3"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A535" s="3"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="3"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="3"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="3"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="3"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="3"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A542" s="3"/>
+    </row>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A543" s="3"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A544" s="3"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="3"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="3"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="3"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="3"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="3"/>
+    </row>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="3"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="3"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="3"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A553" s="3"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A554" s="3"/>
+    </row>
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A555" s="3"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A556" s="3"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A557" s="3"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A558" s="3"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A559" s="3"/>
+    </row>
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A560" s="3"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="3"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="3"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="3"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A564" s="3"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A565" s="3"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A566" s="3"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A567" s="3"/>
+    </row>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A568" s="3"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="3"/>
+    </row>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A570" s="3"/>
+    </row>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="3"/>
+    </row>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="3"/>
+    </row>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="3"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="3"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="3"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="3"/>
+    </row>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="3"/>
+    </row>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="3"/>
+    </row>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="3"/>
+    </row>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="3"/>
+    </row>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="3"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="3"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="3"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="3"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="3"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="3"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="3"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A588" s="3"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="3"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A590" s="3"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A591" s="3"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A592" s="3"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A593" s="3"/>
+    </row>
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A594" s="3"/>
+    </row>
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A595" s="3"/>
+    </row>
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A596" s="3"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A597" s="3"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A598" s="3"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A599" s="3"/>
+    </row>
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A600" s="3"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A601" s="3"/>
+    </row>
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A602" s="3"/>
+    </row>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A603" s="3"/>
+    </row>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A604" s="3"/>
+    </row>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A605" s="3"/>
+    </row>
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A606" s="3"/>
+    </row>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A607" s="3"/>
+    </row>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A608" s="3"/>
+    </row>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A609" s="3"/>
+    </row>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A610" s="3"/>
+    </row>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A611" s="3"/>
+    </row>
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A612" s="3"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A613" s="3"/>
+    </row>
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A614" s="3"/>
+    </row>
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A615" s="3"/>
+    </row>
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A616" s="3"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A617" s="3"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A618" s="3"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A619" s="3"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A620" s="3"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A621" s="3"/>
+    </row>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A622" s="3"/>
+    </row>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A623" s="3"/>
+    </row>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A624" s="3"/>
+    </row>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A625" s="3"/>
+    </row>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A626" s="3"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A627" s="3"/>
+    </row>
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A628" s="3"/>
+    </row>
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A629" s="3"/>
+    </row>
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A630" s="3"/>
+    </row>
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A631" s="3"/>
+    </row>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A632" s="3"/>
+    </row>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A633" s="3"/>
+    </row>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A634" s="3"/>
+    </row>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A635" s="3"/>
+    </row>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A636" s="3"/>
+    </row>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A637" s="3"/>
+    </row>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A638" s="3"/>
+    </row>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A639" s="3"/>
+    </row>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A640" s="3"/>
+    </row>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A641" s="3"/>
+    </row>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A642" s="3"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A643" s="3"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A644" s="3"/>
+    </row>
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A645" s="3"/>
+    </row>
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A646" s="3"/>
+    </row>
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A647" s="3"/>
+    </row>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A648" s="3"/>
+    </row>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A649" s="3"/>
+    </row>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A650" s="3"/>
+    </row>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A651" s="3"/>
+    </row>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A652" s="3"/>
+    </row>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A653" s="3"/>
+    </row>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A654" s="3"/>
+    </row>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A655" s="3"/>
+    </row>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A656" s="3"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A657" s="3"/>
+    </row>
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A658" s="3"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A659" s="3"/>
+    </row>
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A660" s="3"/>
+    </row>
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A661" s="3"/>
+    </row>
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A662" s="3"/>
+    </row>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A663" s="3"/>
+    </row>
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A664" s="3"/>
+    </row>
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A665" s="3"/>
+    </row>
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A666" s="3"/>
+    </row>
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A667" s="3"/>
+    </row>
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A668" s="3"/>
+    </row>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A669" s="3"/>
+    </row>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A670" s="3"/>
+    </row>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A671" s="3"/>
+    </row>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A672" s="3"/>
+    </row>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A673" s="3"/>
+    </row>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A674" s="3"/>
+    </row>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A675" s="3"/>
+    </row>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A676" s="3"/>
+    </row>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A677" s="3"/>
+    </row>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A678" s="3"/>
+    </row>
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A679" s="3"/>
+    </row>
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A680" s="3"/>
+    </row>
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A681" s="3"/>
+    </row>
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A682" s="3"/>
+    </row>
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A683" s="3"/>
+    </row>
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A684" s="3"/>
+    </row>
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A685" s="3"/>
+    </row>
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A686" s="3"/>
+    </row>
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A687" s="3"/>
+    </row>
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A688" s="3"/>
+    </row>
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A689" s="3"/>
+    </row>
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A690" s="3"/>
+    </row>
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A691" s="3"/>
+    </row>
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A692" s="3"/>
+    </row>
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A693" s="3"/>
+    </row>
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A694" s="3"/>
+    </row>
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A695" s="3"/>
+    </row>
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A696" s="3"/>
+    </row>
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A697" s="3"/>
+    </row>
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A698" s="3"/>
+    </row>
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A699" s="3"/>
+    </row>
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A700" s="3"/>
+    </row>
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A701" s="3"/>
+    </row>
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A702" s="3"/>
+    </row>
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A703" s="3"/>
+    </row>
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A704" s="3"/>
+    </row>
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A705" s="3"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A706" s="3"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A707" s="3"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A708" s="3"/>
+    </row>
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A709" s="3"/>
+    </row>
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A710" s="3"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A711" s="3"/>
+    </row>
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A712" s="3"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A713" s="3"/>
+    </row>
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A714" s="3"/>
+    </row>
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A715" s="3"/>
+    </row>
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A716" s="3"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A717" s="3"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A718" s="3"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A719" s="3"/>
+    </row>
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A720" s="3"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A721" s="3"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A722" s="3"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A723" s="3"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A724" s="3"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A725" s="3"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A726" s="3"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A727" s="3"/>
+    </row>
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A728" s="3"/>
+    </row>
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A729" s="3"/>
+    </row>
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A730" s="3"/>
+    </row>
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A731" s="3"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A732" s="3"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A733" s="3"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A734" s="3"/>
+    </row>
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A735" s="3"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A736" s="3"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A737" s="3"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A738" s="3"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A739" s="3"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A740" s="3"/>
+    </row>
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A741" s="3"/>
+    </row>
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A742" s="3"/>
+    </row>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A743" s="3"/>
+    </row>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A744" s="3"/>
+    </row>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A745" s="3"/>
+    </row>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A746" s="3"/>
+    </row>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A747" s="3"/>
+    </row>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A748" s="3"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A749" s="3"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A750" s="3"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A751" s="3"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A752" s="3"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A753" s="3"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A754" s="3"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A755" s="3"/>
+    </row>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A756" s="3"/>
+    </row>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A757" s="3"/>
+    </row>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A758" s="3"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A759" s="3"/>
+    </row>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A760" s="3"/>
+    </row>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A761" s="3"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A762" s="3"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A763" s="3"/>
+    </row>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A764" s="3"/>
+    </row>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A765" s="3"/>
+    </row>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A766" s="3"/>
+    </row>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A767" s="3"/>
+    </row>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A768" s="3"/>
+    </row>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A769" s="3"/>
+    </row>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A770" s="3"/>
+    </row>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A771" s="3"/>
+    </row>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A772" s="3"/>
+    </row>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A773" s="3"/>
+    </row>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A774" s="3"/>
+    </row>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A775" s="3"/>
+    </row>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A776" s="3"/>
+    </row>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A777" s="3"/>
+    </row>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A778" s="3"/>
+    </row>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A779" s="3"/>
+    </row>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A780" s="3"/>
+    </row>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A781" s="3"/>
+    </row>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A782" s="3"/>
+    </row>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A783" s="3"/>
+    </row>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A784" s="3"/>
+    </row>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A785" s="3"/>
+    </row>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A786" s="3"/>
+    </row>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A787" s="3"/>
+    </row>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A788" s="3"/>
+    </row>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A789" s="3"/>
+    </row>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A790" s="3"/>
+    </row>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A791" s="3"/>
+    </row>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A792" s="3"/>
+    </row>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A793" s="3"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A794" s="3"/>
+    </row>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A795" s="3"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A796" s="3"/>
+    </row>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A797" s="3"/>
+    </row>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A798" s="3"/>
+    </row>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A799" s="3"/>
+    </row>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A800" s="3"/>
+    </row>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A801" s="3"/>
+    </row>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A802" s="3"/>
+    </row>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A803" s="3"/>
+    </row>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A804" s="3"/>
+    </row>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A805" s="3"/>
+    </row>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A806" s="3"/>
+    </row>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A807" s="3"/>
+    </row>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A808" s="3"/>
+    </row>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A809" s="3"/>
+    </row>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A810" s="3"/>
+    </row>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A811" s="3"/>
+    </row>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A812" s="3"/>
+    </row>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A813" s="3"/>
+    </row>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A814" s="3"/>
+    </row>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A815" s="3"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A816" s="3"/>
+    </row>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A817" s="3"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A818" s="3"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A819" s="3"/>
+    </row>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A820" s="3"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A821" s="3"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A822" s="3"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A823" s="3"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A824" s="3"/>
+    </row>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A825" s="3"/>
+    </row>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A826" s="3"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A827" s="3"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A828" s="3"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A829" s="3"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A830" s="3"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A831" s="3"/>
+    </row>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A832" s="3"/>
+    </row>
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A833" s="3"/>
+    </row>
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A834" s="3"/>
+    </row>
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A835" s="3"/>
+    </row>
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A836" s="3"/>
+    </row>
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A837" s="3"/>
+    </row>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A838" s="3"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A839" s="3"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A840" s="3"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A841" s="3"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A842" s="3"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A843" s="3"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A844" s="3"/>
+    </row>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A845" s="3"/>
+    </row>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A846" s="3"/>
+    </row>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A847" s="3"/>
+    </row>
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A848" s="3"/>
+    </row>
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A849" s="3"/>
+    </row>
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A850" s="3"/>
+    </row>
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A851" s="3"/>
+    </row>
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A852" s="3"/>
+    </row>
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A853" s="3"/>
+    </row>
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A854" s="3"/>
+    </row>
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A855" s="3"/>
+    </row>
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A856" s="3"/>
+    </row>
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A857" s="3"/>
+    </row>
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A858" s="3"/>
+    </row>
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A859" s="3"/>
+    </row>
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A860" s="3"/>
+    </row>
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A861" s="3"/>
+    </row>
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A862" s="3"/>
+    </row>
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A863" s="3"/>
+    </row>
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A864" s="3"/>
+    </row>
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A865" s="3"/>
+    </row>
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A866" s="3"/>
+    </row>
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A867" s="3"/>
+    </row>
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A868" s="3"/>
+    </row>
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A869" s="3"/>
+    </row>
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A870" s="3"/>
+    </row>
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A871" s="3"/>
+    </row>
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A872" s="3"/>
+    </row>
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A873" s="3"/>
+    </row>
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A874" s="3"/>
+    </row>
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A875" s="3"/>
+    </row>
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A876" s="3"/>
+    </row>
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A877" s="3"/>
+    </row>
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A878" s="3"/>
+    </row>
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A879" s="3"/>
+    </row>
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A880" s="3"/>
+    </row>
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A881" s="3"/>
+    </row>
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A882" s="3"/>
+    </row>
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A883" s="3"/>
+    </row>
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A884" s="3"/>
+    </row>
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A885" s="3"/>
+    </row>
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A886" s="3"/>
+    </row>
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A887" s="3"/>
+    </row>
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A888" s="3"/>
+    </row>
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A889" s="3"/>
+    </row>
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A890" s="3"/>
+    </row>
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A891" s="3"/>
+    </row>
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A892" s="3"/>
+    </row>
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A893" s="3"/>
+    </row>
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A894" s="3"/>
+    </row>
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A895" s="3"/>
+    </row>
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A896" s="3"/>
+    </row>
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A897" s="3"/>
+    </row>
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A898" s="3"/>
+    </row>
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A899" s="3"/>
+    </row>
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A900" s="3"/>
+    </row>
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A901" s="3"/>
+    </row>
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A902" s="3"/>
+    </row>
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A903" s="3"/>
+    </row>
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A904" s="3"/>
+    </row>
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A905" s="3"/>
+    </row>
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A906" s="3"/>
+    </row>
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A907" s="3"/>
+    </row>
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A908" s="3"/>
+    </row>
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A909" s="3"/>
+    </row>
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A910" s="3"/>
+    </row>
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A911" s="3"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A912" s="3"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A913" s="3"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A914" s="3"/>
+    </row>
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A915" s="3"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A916" s="3"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A917" s="3"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A918" s="3"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A919" s="3"/>
+    </row>
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A920" s="3"/>
+    </row>
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A921" s="3"/>
+    </row>
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A922" s="3"/>
+    </row>
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A923" s="3"/>
+    </row>
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A924" s="3"/>
+    </row>
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A925" s="3"/>
+    </row>
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A926" s="3"/>
+    </row>
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A927" s="3"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A928" s="3"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A929" s="3"/>
+    </row>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A930" s="3"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A931" s="3"/>
+    </row>
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A932" s="3"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A933" s="3"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A934" s="3"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A935" s="3"/>
+    </row>
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A936" s="3"/>
+    </row>
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A937" s="3"/>
+    </row>
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A938" s="3"/>
+    </row>
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A939" s="3"/>
+    </row>
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A940" s="3"/>
+    </row>
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A941" s="3"/>
+    </row>
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A942" s="3"/>
+    </row>
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A943" s="3"/>
+    </row>
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A944" s="3"/>
+    </row>
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A945" s="3"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A946" s="3"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A947" s="3"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A948" s="3"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A949" s="3"/>
+    </row>
+    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A950" s="3"/>
+    </row>
+    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A951" s="3"/>
+    </row>
+    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A952" s="3"/>
+    </row>
+    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A953" s="3"/>
+    </row>
+    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A954" s="3"/>
+    </row>
+    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A955" s="3"/>
+    </row>
+    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A956" s="3"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A957" s="3"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A958" s="3"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A959" s="3"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A960" s="3"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A961" s="3"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A962" s="3"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A963" s="3"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A964" s="3"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A965" s="3"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A966" s="3"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A967" s="3"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A968" s="3"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A969" s="3"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A970" s="3"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A971" s="3"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A972" s="3"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A973" s="3"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A974" s="3"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A975" s="3"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A976" s="3"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A977" s="3"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A978" s="3"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A979" s="3"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A980" s="3"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A981" s="3"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A982" s="3"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A983" s="3"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A984" s="3"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A985" s="3"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A986" s="3"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A987" s="3"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A988" s="3"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A989" s="3"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A990" s="3"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A991" s="3"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A992" s="3"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A993" s="3"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A994" s="3"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A995" s="3"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A996" s="3"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="3"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A998" s="3"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A999" s="3"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="3"/>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0">
+    <scenario name="Preço baixo" locked="true" count="5" user="Calc" comment="Criado por  , em 01/03/2024, 20:10:34">
+      <inputCells r="C14" val="10"/>
+      <inputCells r="D14" val="11"/>
+      <inputCells r="E14" val="12"/>
+      <inputCells r="F14" val="13"/>
+      <inputCells r="G14" val="14"/>
+    </scenario>
+  </scenarios>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J1000"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="0" width="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <f aca="false">'Cenário Modelo'!C25</f>
+        <v>821700</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <f aca="false">'Cenário Modelo'!D25</f>
+        <v>986040</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <f aca="false">'Cenário Modelo'!E25</f>
+        <v>1120500</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <f aca="false">'Cenário Modelo'!F25</f>
+        <v>1262430</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <f aca="false">'Cenário Modelo'!G25</f>
+        <v>1411830</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <f aca="false">'Cenário Vendas Baixas'!C25</f>
+        <v>731700</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <f aca="false">'Cenário Vendas Baixas'!D25</f>
+        <v>903870</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <f aca="false">'Cenário Vendas Baixas'!E25</f>
+        <v>904500</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <f aca="false">'Cenário Vendas Baixas'!F25</f>
+        <v>873990</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <f aca="false">'Cenário Vendas Baixas'!G25</f>
+        <v>1056258</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <f aca="false">'Vendas Maiores'!C25</f>
+        <v>920700</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <f aca="false">'Vendas Maiores'!D25</f>
+        <v>1084644</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <f aca="false">'Vendas Maiores'!E25</f>
+        <v>1255500</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <f aca="false">'Vendas Maiores'!F25</f>
+        <v>1388673</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <f aca="false">'Vendas Maiores'!G25</f>
+        <v>1553013</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <f aca="false">'Cenário Preço Maior'!C25</f>
+        <v>1811700</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <f aca="false">'Cenário Preço Maior'!D25</f>
+        <v>1344600</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <f aca="false">'Cenário Preço Maior'!E25</f>
+        <v>1795500</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <f aca="false">'Cenário Preço Maior'!F25</f>
+        <v>1553760</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <f aca="false">'Cenário Preço Maior'!G25</f>
+        <v>1714365</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <f aca="false">'Preços baixos'!C25</f>
+        <v>623700</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <f aca="false">'Preços baixos'!D25</f>
+        <v>806760</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <f aca="false">'Preços baixos'!E25</f>
+        <v>895500</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <f aca="false">'Preços baixos'!F25</f>
+        <v>1068210</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <f aca="false">'Preços baixos'!G25</f>
+        <v>1210140</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3726,36 +8799,36 @@
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3763,204 +8836,204 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="13" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <v>110000</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="15" t="n">
         <v>120000</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <v>125000</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="15" t="n">
         <v>130000</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="16" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="A16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16" t="n">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17" t="n">
         <f aca="false">C14*C15</f>
         <v>1100000</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="17" t="n">
         <f aca="false">D14*D15</f>
         <v>1320000</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">E14*E15</f>
         <v>1500000</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="17" t="n">
         <f aca="false">F14*F15</f>
         <v>1690000</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="17" t="n">
         <f aca="false">G14*G15</f>
         <v>1890000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="n">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17" t="n">
         <v>187000</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="17" t="n">
         <f aca="false">D17*0.17</f>
         <v>224400</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="17" t="n">
         <v>255000</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="17" t="n">
         <f aca="false">F17*0.17</f>
         <v>287300</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="17" t="n">
         <f aca="false">G17*0.17</f>
         <v>321300</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="16" t="n">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="n">
         <f aca="false">C17-C19</f>
         <v>913000</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="17" t="n">
         <f aca="false">D17-D19</f>
         <v>1095600</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="17" t="n">
         <f aca="false">E17-E19</f>
         <v>1245000</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="17" t="n">
         <f aca="false">F17-F19</f>
         <v>1402700</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="17" t="n">
         <f aca="false">G17-G19</f>
         <v>1568700</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="n">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="n">
         <f aca="false">0.1*C21</f>
         <v>91300</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="17" t="n">
         <f aca="false">0.1*D21</f>
         <v>109560</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="17" t="n">
         <f aca="false">0.1*E21</f>
         <v>124500</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="17" t="n">
         <f aca="false">0.1*F21</f>
         <v>140270</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="17" t="n">
         <f aca="false">0.1*G21</f>
         <v>156870</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="A24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="17" t="n">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18" t="n">
         <f aca="false">C21-C23</f>
         <v>821700</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="19" t="n">
         <f aca="false">D21-D23</f>
         <v>986040</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <f aca="false">E21-E23</f>
         <v>1120500</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="19" t="n">
         <f aca="false">F21-F23</f>
         <v>1262430</v>
       </c>
-      <c r="G25" s="19" t="n">
+      <c r="G25" s="20" t="n">
         <f aca="false">G21-G23</f>
         <v>1411830</v>
       </c>
@@ -6898,11 +11971,10 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6910,7 +11982,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6954,36 +12026,36 @@
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6991,204 +12063,204 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="13" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <v>100000</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="15" t="n">
         <v>110000</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <v>105000</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="15" t="n">
         <v>90000</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="16" t="n">
         <v>101000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="A16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16" t="n">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17" t="n">
         <f aca="false">C14*C15</f>
         <v>1000000</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="17" t="n">
         <f aca="false">D14*D15</f>
         <v>1210000</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">E14*E15</f>
         <v>1260000</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="17" t="n">
         <f aca="false">F14*F15</f>
         <v>1170000</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="17" t="n">
         <f aca="false">G14*G15</f>
         <v>1414000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="n">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17" t="n">
         <v>187000</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="17" t="n">
         <f aca="false">D17*0.17</f>
         <v>205700</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="17" t="n">
         <v>255000</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="17" t="n">
         <f aca="false">F17*0.17</f>
         <v>198900</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="17" t="n">
         <f aca="false">G17*0.17</f>
         <v>240380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="16" t="n">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="n">
         <f aca="false">C17-C19</f>
         <v>813000</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="17" t="n">
         <f aca="false">D17-D19</f>
         <v>1004300</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="17" t="n">
         <f aca="false">E17-E19</f>
         <v>1005000</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="17" t="n">
         <f aca="false">F17-F19</f>
         <v>971100</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="17" t="n">
         <f aca="false">G17-G19</f>
         <v>1173620</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="n">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="n">
         <f aca="false">0.1*C21</f>
         <v>81300</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="17" t="n">
         <f aca="false">0.1*D21</f>
         <v>100430</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="17" t="n">
         <f aca="false">0.1*E21</f>
         <v>100500</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="17" t="n">
         <f aca="false">0.1*F21</f>
         <v>97110</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="17" t="n">
         <f aca="false">0.1*G21</f>
         <v>117362</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="A24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="17" t="n">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18" t="n">
         <f aca="false">C21-C23</f>
         <v>731700</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="19" t="n">
         <f aca="false">D21-D23</f>
         <v>903870</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <f aca="false">E21-E23</f>
         <v>904500</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="19" t="n">
         <f aca="false">F21-F23</f>
         <v>873990</v>
       </c>
-      <c r="G25" s="19" t="n">
+      <c r="G25" s="20" t="n">
         <f aca="false">G21-G23</f>
         <v>1056258</v>
       </c>
@@ -10138,7 +15210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10146,7 +15218,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10191,34 +15263,34 @@
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -10226,204 +15298,204 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="13" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <v>121000</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="15" t="n">
         <v>132000</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <v>137500</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="15" t="n">
         <v>143000</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="16" t="n">
         <v>148500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="A16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16" t="n">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17" t="n">
         <f aca="false">C14*C15</f>
         <v>1210000</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="17" t="n">
         <f aca="false">D14*D15</f>
         <v>1452000</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">E14*E15</f>
         <v>1650000</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="17" t="n">
         <f aca="false">F14*F15</f>
         <v>1859000</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="17" t="n">
         <f aca="false">G14*G15</f>
         <v>2079000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="n">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17" t="n">
         <v>187000</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="17" t="n">
         <f aca="false">D17*0.17</f>
         <v>246840</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="17" t="n">
         <v>255000</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="17" t="n">
         <f aca="false">F17*0.17</f>
         <v>316030</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="17" t="n">
         <f aca="false">G17*0.17</f>
         <v>353430</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="16" t="n">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="n">
         <f aca="false">C17-C19</f>
         <v>1023000</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="17" t="n">
         <f aca="false">D17-D19</f>
         <v>1205160</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="17" t="n">
         <f aca="false">E17-E19</f>
         <v>1395000</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="17" t="n">
         <f aca="false">F17-F19</f>
         <v>1542970</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="17" t="n">
         <f aca="false">G17-G19</f>
         <v>1725570</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="n">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="n">
         <f aca="false">0.1*C21</f>
         <v>102300</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="17" t="n">
         <f aca="false">0.1*D21</f>
         <v>120516</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="17" t="n">
         <f aca="false">0.1*E21</f>
         <v>139500</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="17" t="n">
         <f aca="false">0.1*F21</f>
         <v>154297</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="17" t="n">
         <f aca="false">0.1*G21</f>
         <v>172557</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="A24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="17" t="n">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18" t="n">
         <f aca="false">C21-C23</f>
         <v>920700</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="19" t="n">
         <f aca="false">D21-D23</f>
         <v>1084644</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <f aca="false">E21-E23</f>
         <v>1255500</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="19" t="n">
         <f aca="false">F21-F23</f>
         <v>1388673</v>
       </c>
-      <c r="G25" s="19" t="n">
+      <c r="G25" s="20" t="n">
         <f aca="false">G21-G23</f>
         <v>1553013</v>
       </c>
@@ -13374,14 +18446,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13426,36 +18498,36 @@
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -13463,204 +18535,204 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10" t="n">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G14" s="13" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="A15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <v>110000</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="15" t="n">
         <v>120000</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <v>125000</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="15" t="n">
         <v>130000</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="16" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="A16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16" t="n">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="17" t="n">
         <f aca="false">C14*C15</f>
         <v>2200000</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="17" t="n">
         <f aca="false">D14*D15</f>
         <v>1800000</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">E14*E15</f>
         <v>2250000</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="17" t="n">
         <f aca="false">F14*F15</f>
         <v>2080000</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="17" t="n">
         <f aca="false">G14*G15</f>
         <v>2295000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="n">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17" t="n">
         <v>187000</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="17" t="n">
         <f aca="false">D17*0.17</f>
         <v>306000</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="17" t="n">
         <v>255000</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="17" t="n">
         <f aca="false">F17*0.17</f>
         <v>353600</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="17" t="n">
         <f aca="false">G17*0.17</f>
         <v>390150</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="16" t="n">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="n">
         <f aca="false">C17-C19</f>
         <v>2013000</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="17" t="n">
         <f aca="false">D17-D19</f>
         <v>1494000</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="17" t="n">
         <f aca="false">E17-E19</f>
         <v>1995000</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="17" t="n">
         <f aca="false">F17-F19</f>
         <v>1726400</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="17" t="n">
         <f aca="false">G17-G19</f>
         <v>1904850</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="n">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="n">
         <f aca="false">0.1*C21</f>
         <v>201300</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="17" t="n">
         <f aca="false">0.1*D21</f>
         <v>149400</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="17" t="n">
         <f aca="false">0.1*E21</f>
         <v>199500</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="17" t="n">
         <f aca="false">0.1*F21</f>
         <v>172640</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="17" t="n">
         <f aca="false">0.1*G21</f>
         <v>190485</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="A24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="17" t="n">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="18" t="n">
         <f aca="false">C21-C23</f>
         <v>1811700</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="19" t="n">
         <f aca="false">D21-D23</f>
         <v>1344600</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <f aca="false">E21-E23</f>
         <v>1795500</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="19" t="n">
         <f aca="false">F21-F23</f>
         <v>1553760</v>
       </c>
-      <c r="G25" s="19" t="n">
+      <c r="G25" s="20" t="n">
         <f aca="false">G21-G23</f>
         <v>1714365</v>
       </c>
